--- a/src/16 Scientific Libraries/06 Spreadsheets/data/calendar.xlsx
+++ b/src/16 Scientific Libraries/06 Spreadsheets/data/calendar.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -593,11 +593,31 @@
     <row r="4" ht="14.7" customHeight="1">
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" s="1" t="inlineStr"/>
-      <c r="D4" s="1" t="inlineStr"/>
-      <c r="E4" s="1" t="inlineStr"/>
-      <c r="F4" s="1" t="inlineStr"/>
-      <c r="G4" s="1" t="inlineStr"/>
-      <c r="H4" s="1" t="inlineStr"/>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J4" s="1" t="inlineStr"/>
       <c r="K4" s="1" t="inlineStr"/>
       <c r="L4" s="1" t="inlineStr"/>
@@ -607,13 +627,41 @@
       <c r="P4" s="1" t="inlineStr"/>
     </row>
     <row r="5" ht="14.7" customHeight="1">
-      <c r="B5" s="1" t="inlineStr"/>
-      <c r="C5" s="1" t="inlineStr"/>
-      <c r="D5" s="1" t="inlineStr"/>
-      <c r="E5" s="1" t="inlineStr"/>
-      <c r="F5" s="1" t="inlineStr"/>
-      <c r="G5" s="1" t="inlineStr"/>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="J5" s="1" t="inlineStr"/>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="inlineStr"/>
@@ -623,13 +671,41 @@
       <c r="P5" s="1" t="inlineStr"/>
     </row>
     <row r="6" ht="14.7" customHeight="1">
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr"/>
-      <c r="D6" s="1" t="inlineStr"/>
-      <c r="E6" s="1" t="inlineStr"/>
-      <c r="F6" s="1" t="inlineStr"/>
-      <c r="G6" s="1" t="inlineStr"/>
-      <c r="H6" s="1" t="inlineStr"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="J6" s="1" t="inlineStr"/>
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="inlineStr"/>
@@ -639,13 +715,41 @@
       <c r="P6" s="1" t="inlineStr"/>
     </row>
     <row r="7" ht="14.7" customHeight="1">
-      <c r="B7" s="1" t="inlineStr"/>
-      <c r="C7" s="1" t="inlineStr"/>
-      <c r="D7" s="1" t="inlineStr"/>
-      <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="inlineStr"/>
-      <c r="G7" s="1" t="inlineStr"/>
-      <c r="H7" s="1" t="inlineStr"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
       <c r="J7" s="1" t="inlineStr"/>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="inlineStr"/>
@@ -655,11 +759,31 @@
       <c r="P7" s="1" t="inlineStr"/>
     </row>
     <row r="8" ht="14.7" customHeight="1">
-      <c r="B8" s="1" t="inlineStr"/>
-      <c r="C8" s="1" t="inlineStr"/>
-      <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="inlineStr"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="G8" s="1" t="inlineStr"/>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="J8" s="1" t="inlineStr"/>
@@ -788,8 +912,16 @@
       <c r="D12" s="1" t="inlineStr"/>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr"/>
-      <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr"/>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J12" s="1" t="inlineStr"/>
       <c r="K12" s="1" t="inlineStr"/>
       <c r="L12" s="1" t="inlineStr"/>
@@ -799,13 +931,41 @@
       <c r="P12" s="1" t="inlineStr"/>
     </row>
     <row r="13" ht="14.7" customHeight="1">
-      <c r="B13" s="1" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr"/>
-      <c r="D13" s="1" t="inlineStr"/>
-      <c r="E13" s="1" t="inlineStr"/>
-      <c r="F13" s="1" t="inlineStr"/>
-      <c r="G13" s="1" t="inlineStr"/>
-      <c r="H13" s="1" t="inlineStr"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="J13" s="1" t="inlineStr"/>
       <c r="K13" s="1" t="inlineStr"/>
       <c r="L13" s="1" t="inlineStr"/>
@@ -815,13 +975,41 @@
       <c r="P13" s="1" t="inlineStr"/>
     </row>
     <row r="14" ht="14.7" customHeight="1">
-      <c r="B14" s="1" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr"/>
-      <c r="D14" s="1" t="inlineStr"/>
-      <c r="E14" s="1" t="inlineStr"/>
-      <c r="F14" s="1" t="inlineStr"/>
-      <c r="G14" s="1" t="inlineStr"/>
-      <c r="H14" s="1" t="inlineStr"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="J14" s="1" t="inlineStr"/>
       <c r="K14" s="1" t="inlineStr"/>
       <c r="L14" s="1" t="inlineStr"/>
@@ -831,13 +1019,41 @@
       <c r="P14" s="1" t="inlineStr"/>
     </row>
     <row r="15" ht="14.7" customHeight="1">
-      <c r="B15" s="1" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr"/>
-      <c r="D15" s="1" t="inlineStr"/>
-      <c r="E15" s="1" t="inlineStr"/>
-      <c r="F15" s="1" t="inlineStr"/>
-      <c r="G15" s="1" t="inlineStr"/>
-      <c r="H15" s="1" t="inlineStr"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="J15" s="1" t="inlineStr"/>
       <c r="K15" s="1" t="inlineStr"/>
       <c r="L15" s="1" t="inlineStr"/>
@@ -847,11 +1063,31 @@
       <c r="P15" s="1" t="inlineStr"/>
     </row>
     <row r="16" ht="14.7" customHeight="1">
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="inlineStr"/>
-      <c r="E16" s="1" t="inlineStr"/>
-      <c r="F16" s="1" t="inlineStr"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="G16" s="1" t="inlineStr"/>
       <c r="H16" s="1" t="inlineStr"/>
       <c r="J16" s="1" t="inlineStr"/>
@@ -980,8 +1216,16 @@
       <c r="D20" s="1" t="inlineStr"/>
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr"/>
-      <c r="G20" s="1" t="inlineStr"/>
-      <c r="H20" s="1" t="inlineStr"/>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J20" s="1" t="inlineStr"/>
       <c r="K20" s="1" t="inlineStr"/>
       <c r="L20" s="1" t="inlineStr"/>
@@ -991,13 +1235,41 @@
       <c r="P20" s="1" t="inlineStr"/>
     </row>
     <row r="21" ht="14.7" customHeight="1">
-      <c r="B21" s="1" t="inlineStr"/>
-      <c r="C21" s="1" t="inlineStr"/>
-      <c r="D21" s="1" t="inlineStr"/>
-      <c r="E21" s="1" t="inlineStr"/>
-      <c r="F21" s="1" t="inlineStr"/>
-      <c r="G21" s="1" t="inlineStr"/>
-      <c r="H21" s="1" t="inlineStr"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="J21" s="1" t="inlineStr"/>
       <c r="K21" s="1" t="inlineStr"/>
       <c r="L21" s="1" t="inlineStr"/>
@@ -1007,13 +1279,41 @@
       <c r="P21" s="1" t="inlineStr"/>
     </row>
     <row r="22" ht="14.7" customHeight="1">
-      <c r="B22" s="1" t="inlineStr"/>
-      <c r="C22" s="1" t="inlineStr"/>
-      <c r="D22" s="1" t="inlineStr"/>
-      <c r="E22" s="1" t="inlineStr"/>
-      <c r="F22" s="1" t="inlineStr"/>
-      <c r="G22" s="1" t="inlineStr"/>
-      <c r="H22" s="1" t="inlineStr"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="J22" s="1" t="inlineStr"/>
       <c r="K22" s="1" t="inlineStr"/>
       <c r="L22" s="1" t="inlineStr"/>
@@ -1023,13 +1323,41 @@
       <c r="P22" s="1" t="inlineStr"/>
     </row>
     <row r="23" ht="14.7" customHeight="1">
-      <c r="B23" s="1" t="inlineStr"/>
-      <c r="C23" s="1" t="inlineStr"/>
-      <c r="D23" s="1" t="inlineStr"/>
-      <c r="E23" s="1" t="inlineStr"/>
-      <c r="F23" s="1" t="inlineStr"/>
-      <c r="G23" s="1" t="inlineStr"/>
-      <c r="H23" s="1" t="inlineStr"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="J23" s="1" t="inlineStr"/>
       <c r="K23" s="1" t="inlineStr"/>
       <c r="L23" s="1" t="inlineStr"/>
@@ -1039,13 +1367,41 @@
       <c r="P23" s="1" t="inlineStr"/>
     </row>
     <row r="24" ht="14.7" customHeight="1">
-      <c r="B24" s="1" t="inlineStr"/>
-      <c r="C24" s="1" t="inlineStr"/>
-      <c r="D24" s="1" t="inlineStr"/>
-      <c r="E24" s="1" t="inlineStr"/>
-      <c r="F24" s="1" t="inlineStr"/>
-      <c r="G24" s="1" t="inlineStr"/>
-      <c r="H24" s="1" t="inlineStr"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="J24" s="1" t="inlineStr"/>
       <c r="K24" s="1" t="inlineStr"/>
       <c r="L24" s="1" t="inlineStr"/>
@@ -1055,7 +1411,11 @@
       <c r="P24" s="1" t="inlineStr"/>
     </row>
     <row r="25" ht="14.7" customHeight="1">
-      <c r="B25" s="1" t="inlineStr"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="C25" s="1" t="inlineStr"/>
       <c r="D25" s="1" t="inlineStr"/>
       <c r="E25" s="1" t="inlineStr"/>
@@ -1184,12 +1544,36 @@
     </row>
     <row r="29" ht="14.7" customHeight="1">
       <c r="B29" s="1" t="inlineStr"/>
-      <c r="C29" s="1" t="inlineStr"/>
-      <c r="D29" s="1" t="inlineStr"/>
-      <c r="E29" s="1" t="inlineStr"/>
-      <c r="F29" s="1" t="inlineStr"/>
-      <c r="G29" s="1" t="inlineStr"/>
-      <c r="H29" s="1" t="inlineStr"/>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="J29" s="1" t="inlineStr"/>
       <c r="K29" s="1" t="inlineStr"/>
       <c r="L29" s="1" t="inlineStr"/>
@@ -1199,13 +1583,41 @@
       <c r="P29" s="1" t="inlineStr"/>
     </row>
     <row r="30" ht="14.7" customHeight="1">
-      <c r="B30" s="1" t="inlineStr"/>
-      <c r="C30" s="1" t="inlineStr"/>
-      <c r="D30" s="1" t="inlineStr"/>
-      <c r="E30" s="1" t="inlineStr"/>
-      <c r="F30" s="1" t="inlineStr"/>
-      <c r="G30" s="1" t="inlineStr"/>
-      <c r="H30" s="1" t="inlineStr"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H30" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="J30" s="1" t="inlineStr"/>
       <c r="K30" s="1" t="inlineStr"/>
       <c r="L30" s="1" t="inlineStr"/>
@@ -1215,13 +1627,41 @@
       <c r="P30" s="1" t="inlineStr"/>
     </row>
     <row r="31" ht="14.7" customHeight="1">
-      <c r="B31" s="1" t="inlineStr"/>
-      <c r="C31" s="1" t="inlineStr"/>
-      <c r="D31" s="1" t="inlineStr"/>
-      <c r="E31" s="1" t="inlineStr"/>
-      <c r="F31" s="1" t="inlineStr"/>
-      <c r="G31" s="1" t="inlineStr"/>
-      <c r="H31" s="1" t="inlineStr"/>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="J31" s="1" t="inlineStr"/>
       <c r="K31" s="1" t="inlineStr"/>
       <c r="L31" s="1" t="inlineStr"/>
@@ -1231,13 +1671,41 @@
       <c r="P31" s="1" t="inlineStr"/>
     </row>
     <row r="32" ht="14.7" customHeight="1">
-      <c r="B32" s="1" t="inlineStr"/>
-      <c r="C32" s="1" t="inlineStr"/>
-      <c r="D32" s="1" t="inlineStr"/>
-      <c r="E32" s="1" t="inlineStr"/>
-      <c r="F32" s="1" t="inlineStr"/>
-      <c r="G32" s="1" t="inlineStr"/>
-      <c r="H32" s="1" t="inlineStr"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H32" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
       <c r="J32" s="1" t="inlineStr"/>
       <c r="K32" s="1" t="inlineStr"/>
       <c r="L32" s="1" t="inlineStr"/>
@@ -1247,9 +1715,21 @@
       <c r="P32" s="1" t="inlineStr"/>
     </row>
     <row r="33" ht="14.7" customHeight="1">
-      <c r="B33" s="1" t="inlineStr"/>
-      <c r="C33" s="1" t="inlineStr"/>
-      <c r="D33" s="1" t="inlineStr"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="E33" s="1" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr"/>
       <c r="G33" s="1" t="inlineStr"/>
@@ -1378,10 +1858,26 @@
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" s="1" t="inlineStr"/>
       <c r="D37" s="1" t="inlineStr"/>
-      <c r="E37" s="1" t="inlineStr"/>
-      <c r="F37" s="1" t="inlineStr"/>
-      <c r="G37" s="1" t="inlineStr"/>
-      <c r="H37" s="1" t="inlineStr"/>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J37" s="1" t="inlineStr"/>
       <c r="K37" s="1" t="inlineStr"/>
       <c r="L37" s="1" t="inlineStr"/>
@@ -1391,13 +1887,41 @@
       <c r="P37" s="1" t="inlineStr"/>
     </row>
     <row r="38" ht="14.7" customHeight="1">
-      <c r="B38" s="1" t="inlineStr"/>
-      <c r="C38" s="1" t="inlineStr"/>
-      <c r="D38" s="1" t="inlineStr"/>
-      <c r="E38" s="1" t="inlineStr"/>
-      <c r="F38" s="1" t="inlineStr"/>
-      <c r="G38" s="1" t="inlineStr"/>
-      <c r="H38" s="1" t="inlineStr"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H38" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="J38" s="1" t="inlineStr"/>
       <c r="K38" s="1" t="inlineStr"/>
       <c r="L38" s="1" t="inlineStr"/>
@@ -1407,13 +1931,41 @@
       <c r="P38" s="1" t="inlineStr"/>
     </row>
     <row r="39" ht="14.7" customHeight="1">
-      <c r="B39" s="1" t="inlineStr"/>
-      <c r="C39" s="1" t="inlineStr"/>
-      <c r="D39" s="1" t="inlineStr"/>
-      <c r="E39" s="1" t="inlineStr"/>
-      <c r="F39" s="1" t="inlineStr"/>
-      <c r="G39" s="1" t="inlineStr"/>
-      <c r="H39" s="1" t="inlineStr"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H39" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="J39" s="1" t="inlineStr"/>
       <c r="K39" s="1" t="inlineStr"/>
       <c r="L39" s="1" t="inlineStr"/>
@@ -1423,13 +1975,41 @@
       <c r="P39" s="1" t="inlineStr"/>
     </row>
     <row r="40" ht="14.7" customHeight="1">
-      <c r="B40" s="1" t="inlineStr"/>
-      <c r="C40" s="1" t="inlineStr"/>
-      <c r="D40" s="1" t="inlineStr"/>
-      <c r="E40" s="1" t="inlineStr"/>
-      <c r="F40" s="1" t="inlineStr"/>
-      <c r="G40" s="1" t="inlineStr"/>
-      <c r="H40" s="1" t="inlineStr"/>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H40" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="J40" s="1" t="inlineStr"/>
       <c r="K40" s="1" t="inlineStr"/>
       <c r="L40" s="1" t="inlineStr"/>
@@ -1439,12 +2019,36 @@
       <c r="P40" s="1" t="inlineStr"/>
     </row>
     <row r="41" ht="14.7" customHeight="1">
-      <c r="B41" s="1" t="inlineStr"/>
-      <c r="C41" s="1" t="inlineStr"/>
-      <c r="D41" s="1" t="inlineStr"/>
-      <c r="E41" s="1" t="inlineStr"/>
-      <c r="F41" s="1" t="inlineStr"/>
-      <c r="G41" s="1" t="inlineStr"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="H41" s="1" t="inlineStr"/>
       <c r="J41" s="1" t="inlineStr"/>
       <c r="K41" s="1" t="inlineStr"/>
@@ -1573,7 +2177,11 @@
       <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr"/>
       <c r="G45" s="1" t="inlineStr"/>
-      <c r="H45" s="1" t="inlineStr"/>
+      <c r="H45" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J45" s="1" t="inlineStr"/>
       <c r="K45" s="1" t="inlineStr"/>
       <c r="L45" s="1" t="inlineStr"/>
@@ -1583,13 +2191,41 @@
       <c r="P45" s="1" t="inlineStr"/>
     </row>
     <row r="46" ht="14.7" customHeight="1">
-      <c r="B46" s="1" t="inlineStr"/>
-      <c r="C46" s="1" t="inlineStr"/>
-      <c r="D46" s="1" t="inlineStr"/>
-      <c r="E46" s="1" t="inlineStr"/>
-      <c r="F46" s="1" t="inlineStr"/>
-      <c r="G46" s="1" t="inlineStr"/>
-      <c r="H46" s="1" t="inlineStr"/>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H46" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="J46" s="1" t="inlineStr"/>
       <c r="K46" s="1" t="inlineStr"/>
       <c r="L46" s="1" t="inlineStr"/>
@@ -1599,13 +2235,41 @@
       <c r="P46" s="1" t="inlineStr"/>
     </row>
     <row r="47" ht="14.7" customHeight="1">
-      <c r="B47" s="1" t="inlineStr"/>
-      <c r="C47" s="1" t="inlineStr"/>
-      <c r="D47" s="1" t="inlineStr"/>
-      <c r="E47" s="1" t="inlineStr"/>
-      <c r="F47" s="1" t="inlineStr"/>
-      <c r="G47" s="1" t="inlineStr"/>
-      <c r="H47" s="1" t="inlineStr"/>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J47" s="1" t="inlineStr"/>
       <c r="K47" s="1" t="inlineStr"/>
       <c r="L47" s="1" t="inlineStr"/>
@@ -1615,13 +2279,41 @@
       <c r="P47" s="1" t="inlineStr"/>
     </row>
     <row r="48" ht="14.7" customHeight="1">
-      <c r="B48" s="1" t="inlineStr"/>
-      <c r="C48" s="1" t="inlineStr"/>
-      <c r="D48" s="1" t="inlineStr"/>
-      <c r="E48" s="1" t="inlineStr"/>
-      <c r="F48" s="1" t="inlineStr"/>
-      <c r="G48" s="1" t="inlineStr"/>
-      <c r="H48" s="1" t="inlineStr"/>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="J48" s="1" t="inlineStr"/>
       <c r="K48" s="1" t="inlineStr"/>
       <c r="L48" s="1" t="inlineStr"/>
@@ -1631,13 +2323,41 @@
       <c r="P48" s="1" t="inlineStr"/>
     </row>
     <row r="49" ht="14.7" customHeight="1">
-      <c r="B49" s="1" t="inlineStr"/>
-      <c r="C49" s="1" t="inlineStr"/>
-      <c r="D49" s="1" t="inlineStr"/>
-      <c r="E49" s="1" t="inlineStr"/>
-      <c r="F49" s="1" t="inlineStr"/>
-      <c r="G49" s="1" t="inlineStr"/>
-      <c r="H49" s="1" t="inlineStr"/>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
       <c r="J49" s="1" t="inlineStr"/>
       <c r="K49" s="1" t="inlineStr"/>
       <c r="L49" s="1" t="inlineStr"/>
@@ -1647,7 +2367,11 @@
       <c r="P49" s="1" t="inlineStr"/>
     </row>
     <row r="50" ht="14.7" customHeight="1">
-      <c r="B50" s="1" t="inlineStr"/>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="C50" s="1" t="inlineStr"/>
       <c r="D50" s="1" t="inlineStr"/>
       <c r="E50" s="1" t="inlineStr"/>
@@ -1776,12 +2500,36 @@
     </row>
     <row r="54" ht="14.7" customHeight="1">
       <c r="B54" s="1" t="inlineStr"/>
-      <c r="C54" s="1" t="inlineStr"/>
-      <c r="D54" s="1" t="inlineStr"/>
-      <c r="E54" s="1" t="inlineStr"/>
-      <c r="F54" s="1" t="inlineStr"/>
-      <c r="G54" s="1" t="inlineStr"/>
-      <c r="H54" s="1" t="inlineStr"/>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H54" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="J54" s="1" t="inlineStr"/>
       <c r="K54" s="1" t="inlineStr"/>
       <c r="L54" s="1" t="inlineStr"/>
@@ -1791,13 +2539,41 @@
       <c r="P54" s="1" t="inlineStr"/>
     </row>
     <row r="55" ht="14.7" customHeight="1">
-      <c r="B55" s="1" t="inlineStr"/>
-      <c r="C55" s="1" t="inlineStr"/>
-      <c r="D55" s="1" t="inlineStr"/>
-      <c r="E55" s="1" t="inlineStr"/>
-      <c r="F55" s="1" t="inlineStr"/>
-      <c r="G55" s="1" t="inlineStr"/>
-      <c r="H55" s="1" t="inlineStr"/>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H55" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="J55" s="1" t="inlineStr"/>
       <c r="K55" s="1" t="inlineStr"/>
       <c r="L55" s="1" t="inlineStr"/>
@@ -1807,13 +2583,41 @@
       <c r="P55" s="1" t="inlineStr"/>
     </row>
     <row r="56" ht="14.7" customHeight="1">
-      <c r="B56" s="1" t="inlineStr"/>
-      <c r="C56" s="1" t="inlineStr"/>
-      <c r="D56" s="1" t="inlineStr"/>
-      <c r="E56" s="1" t="inlineStr"/>
-      <c r="F56" s="1" t="inlineStr"/>
-      <c r="G56" s="1" t="inlineStr"/>
-      <c r="H56" s="1" t="inlineStr"/>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H56" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="J56" s="1" t="inlineStr"/>
       <c r="K56" s="1" t="inlineStr"/>
       <c r="L56" s="1" t="inlineStr"/>
@@ -1823,13 +2627,41 @@
       <c r="P56" s="1" t="inlineStr"/>
     </row>
     <row r="57" ht="14.7" customHeight="1">
-      <c r="B57" s="1" t="inlineStr"/>
-      <c r="C57" s="1" t="inlineStr"/>
-      <c r="D57" s="1" t="inlineStr"/>
-      <c r="E57" s="1" t="inlineStr"/>
-      <c r="F57" s="1" t="inlineStr"/>
-      <c r="G57" s="1" t="inlineStr"/>
-      <c r="H57" s="1" t="inlineStr"/>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H57" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
       <c r="J57" s="1" t="inlineStr"/>
       <c r="K57" s="1" t="inlineStr"/>
       <c r="L57" s="1" t="inlineStr"/>
@@ -1839,10 +2671,26 @@
       <c r="P57" s="1" t="inlineStr"/>
     </row>
     <row r="58" ht="14.7" customHeight="1">
-      <c r="B58" s="1" t="inlineStr"/>
-      <c r="C58" s="1" t="inlineStr"/>
-      <c r="D58" s="1" t="inlineStr"/>
-      <c r="E58" s="1" t="inlineStr"/>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="F58" s="1" t="inlineStr"/>
       <c r="G58" s="1" t="inlineStr"/>
       <c r="H58" s="1" t="inlineStr"/>
@@ -1971,9 +2819,21 @@
       <c r="C62" s="1" t="inlineStr"/>
       <c r="D62" s="1" t="inlineStr"/>
       <c r="E62" s="1" t="inlineStr"/>
-      <c r="F62" s="1" t="inlineStr"/>
-      <c r="G62" s="1" t="inlineStr"/>
-      <c r="H62" s="1" t="inlineStr"/>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H62" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J62" s="1" t="inlineStr"/>
       <c r="K62" s="1" t="inlineStr"/>
       <c r="L62" s="1" t="inlineStr"/>
@@ -1983,13 +2843,41 @@
       <c r="P62" s="1" t="inlineStr"/>
     </row>
     <row r="63" ht="14.7" customHeight="1">
-      <c r="B63" s="1" t="inlineStr"/>
-      <c r="C63" s="1" t="inlineStr"/>
-      <c r="D63" s="1" t="inlineStr"/>
-      <c r="E63" s="1" t="inlineStr"/>
-      <c r="F63" s="1" t="inlineStr"/>
-      <c r="G63" s="1" t="inlineStr"/>
-      <c r="H63" s="1" t="inlineStr"/>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H63" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J63" s="1" t="inlineStr"/>
       <c r="K63" s="1" t="inlineStr"/>
       <c r="L63" s="1" t="inlineStr"/>
@@ -1999,13 +2887,41 @@
       <c r="P63" s="1" t="inlineStr"/>
     </row>
     <row r="64" ht="14.7" customHeight="1">
-      <c r="B64" s="1" t="inlineStr"/>
-      <c r="C64" s="1" t="inlineStr"/>
-      <c r="D64" s="1" t="inlineStr"/>
-      <c r="E64" s="1" t="inlineStr"/>
-      <c r="F64" s="1" t="inlineStr"/>
-      <c r="G64" s="1" t="inlineStr"/>
-      <c r="H64" s="1" t="inlineStr"/>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F64" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H64" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="J64" s="1" t="inlineStr"/>
       <c r="K64" s="1" t="inlineStr"/>
       <c r="L64" s="1" t="inlineStr"/>
@@ -2015,13 +2931,41 @@
       <c r="P64" s="1" t="inlineStr"/>
     </row>
     <row r="65" ht="14.7" customHeight="1">
-      <c r="B65" s="1" t="inlineStr"/>
-      <c r="C65" s="1" t="inlineStr"/>
-      <c r="D65" s="1" t="inlineStr"/>
-      <c r="E65" s="1" t="inlineStr"/>
-      <c r="F65" s="1" t="inlineStr"/>
-      <c r="G65" s="1" t="inlineStr"/>
-      <c r="H65" s="1" t="inlineStr"/>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H65" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="J65" s="1" t="inlineStr"/>
       <c r="K65" s="1" t="inlineStr"/>
       <c r="L65" s="1" t="inlineStr"/>
@@ -2031,13 +2975,41 @@
       <c r="P65" s="1" t="inlineStr"/>
     </row>
     <row r="66" ht="14.7" customHeight="1">
-      <c r="B66" s="1" t="inlineStr"/>
-      <c r="C66" s="1" t="inlineStr"/>
-      <c r="D66" s="1" t="inlineStr"/>
-      <c r="E66" s="1" t="inlineStr"/>
-      <c r="F66" s="1" t="inlineStr"/>
-      <c r="G66" s="1" t="inlineStr"/>
-      <c r="H66" s="1" t="inlineStr"/>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H66" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="J66" s="1" t="inlineStr"/>
       <c r="K66" s="1" t="inlineStr"/>
       <c r="L66" s="1" t="inlineStr"/>
@@ -2159,13 +3131,41 @@
       </c>
     </row>
     <row r="70" ht="14.7" customHeight="1">
-      <c r="B70" s="1" t="inlineStr"/>
-      <c r="C70" s="1" t="inlineStr"/>
-      <c r="D70" s="1" t="inlineStr"/>
-      <c r="E70" s="1" t="inlineStr"/>
-      <c r="F70" s="1" t="inlineStr"/>
-      <c r="G70" s="1" t="inlineStr"/>
-      <c r="H70" s="1" t="inlineStr"/>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H70" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="J70" s="1" t="inlineStr"/>
       <c r="K70" s="1" t="inlineStr"/>
       <c r="L70" s="1" t="inlineStr"/>
@@ -2175,13 +3175,41 @@
       <c r="P70" s="1" t="inlineStr"/>
     </row>
     <row r="71" ht="14.7" customHeight="1">
-      <c r="B71" s="1" t="inlineStr"/>
-      <c r="C71" s="1" t="inlineStr"/>
-      <c r="D71" s="1" t="inlineStr"/>
-      <c r="E71" s="1" t="inlineStr"/>
-      <c r="F71" s="1" t="inlineStr"/>
-      <c r="G71" s="1" t="inlineStr"/>
-      <c r="H71" s="1" t="inlineStr"/>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H71" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="J71" s="1" t="inlineStr"/>
       <c r="K71" s="1" t="inlineStr"/>
       <c r="L71" s="1" t="inlineStr"/>
@@ -2191,13 +3219,41 @@
       <c r="P71" s="1" t="inlineStr"/>
     </row>
     <row r="72" ht="14.7" customHeight="1">
-      <c r="B72" s="1" t="inlineStr"/>
-      <c r="C72" s="1" t="inlineStr"/>
-      <c r="D72" s="1" t="inlineStr"/>
-      <c r="E72" s="1" t="inlineStr"/>
-      <c r="F72" s="1" t="inlineStr"/>
-      <c r="G72" s="1" t="inlineStr"/>
-      <c r="H72" s="1" t="inlineStr"/>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F72" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G72" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H72" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="J72" s="1" t="inlineStr"/>
       <c r="K72" s="1" t="inlineStr"/>
       <c r="L72" s="1" t="inlineStr"/>
@@ -2207,13 +3263,41 @@
       <c r="P72" s="1" t="inlineStr"/>
     </row>
     <row r="73" ht="14.7" customHeight="1">
-      <c r="B73" s="1" t="inlineStr"/>
-      <c r="C73" s="1" t="inlineStr"/>
-      <c r="D73" s="1" t="inlineStr"/>
-      <c r="E73" s="1" t="inlineStr"/>
-      <c r="F73" s="1" t="inlineStr"/>
-      <c r="G73" s="1" t="inlineStr"/>
-      <c r="H73" s="1" t="inlineStr"/>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F73" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H73" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="J73" s="1" t="inlineStr"/>
       <c r="K73" s="1" t="inlineStr"/>
       <c r="L73" s="1" t="inlineStr"/>
@@ -2223,8 +3307,16 @@
       <c r="P73" s="1" t="inlineStr"/>
     </row>
     <row r="74" ht="14.7" customHeight="1">
-      <c r="B74" s="1" t="inlineStr"/>
-      <c r="C74" s="1" t="inlineStr"/>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="D74" s="1" t="inlineStr"/>
       <c r="E74" s="1" t="inlineStr"/>
       <c r="F74" s="1" t="inlineStr"/>
@@ -2353,11 +3445,31 @@
     <row r="78" ht="14.7" customHeight="1">
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" s="1" t="inlineStr"/>
-      <c r="D78" s="1" t="inlineStr"/>
-      <c r="E78" s="1" t="inlineStr"/>
-      <c r="F78" s="1" t="inlineStr"/>
-      <c r="G78" s="1" t="inlineStr"/>
-      <c r="H78" s="1" t="inlineStr"/>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F78" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G78" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H78" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J78" s="1" t="inlineStr"/>
       <c r="K78" s="1" t="inlineStr"/>
       <c r="L78" s="1" t="inlineStr"/>
@@ -2367,13 +3479,41 @@
       <c r="P78" s="1" t="inlineStr"/>
     </row>
     <row r="79" ht="14.7" customHeight="1">
-      <c r="B79" s="1" t="inlineStr"/>
-      <c r="C79" s="1" t="inlineStr"/>
-      <c r="D79" s="1" t="inlineStr"/>
-      <c r="E79" s="1" t="inlineStr"/>
-      <c r="F79" s="1" t="inlineStr"/>
-      <c r="G79" s="1" t="inlineStr"/>
-      <c r="H79" s="1" t="inlineStr"/>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F79" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G79" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H79" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="J79" s="1" t="inlineStr"/>
       <c r="K79" s="1" t="inlineStr"/>
       <c r="L79" s="1" t="inlineStr"/>
@@ -2383,13 +3523,41 @@
       <c r="P79" s="1" t="inlineStr"/>
     </row>
     <row r="80" ht="14.7" customHeight="1">
-      <c r="B80" s="1" t="inlineStr"/>
-      <c r="C80" s="1" t="inlineStr"/>
-      <c r="D80" s="1" t="inlineStr"/>
-      <c r="E80" s="1" t="inlineStr"/>
-      <c r="F80" s="1" t="inlineStr"/>
-      <c r="G80" s="1" t="inlineStr"/>
-      <c r="H80" s="1" t="inlineStr"/>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F80" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G80" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H80" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="J80" s="1" t="inlineStr"/>
       <c r="K80" s="1" t="inlineStr"/>
       <c r="L80" s="1" t="inlineStr"/>
@@ -2399,13 +3567,41 @@
       <c r="P80" s="1" t="inlineStr"/>
     </row>
     <row r="81" ht="14.7" customHeight="1">
-      <c r="B81" s="1" t="inlineStr"/>
-      <c r="C81" s="1" t="inlineStr"/>
-      <c r="D81" s="1" t="inlineStr"/>
-      <c r="E81" s="1" t="inlineStr"/>
-      <c r="F81" s="1" t="inlineStr"/>
-      <c r="G81" s="1" t="inlineStr"/>
-      <c r="H81" s="1" t="inlineStr"/>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F81" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G81" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H81" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
       <c r="J81" s="1" t="inlineStr"/>
       <c r="K81" s="1" t="inlineStr"/>
       <c r="L81" s="1" t="inlineStr"/>
@@ -2415,11 +3611,31 @@
       <c r="P81" s="1" t="inlineStr"/>
     </row>
     <row r="82" ht="14.7" customHeight="1">
-      <c r="B82" s="1" t="inlineStr"/>
-      <c r="C82" s="1" t="inlineStr"/>
-      <c r="D82" s="1" t="inlineStr"/>
-      <c r="E82" s="1" t="inlineStr"/>
-      <c r="F82" s="1" t="inlineStr"/>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F82" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="G82" s="1" t="inlineStr"/>
       <c r="H82" s="1" t="inlineStr"/>
       <c r="J82" s="1" t="inlineStr"/>
@@ -2548,8 +3764,16 @@
       <c r="D86" s="1" t="inlineStr"/>
       <c r="E86" s="1" t="inlineStr"/>
       <c r="F86" s="1" t="inlineStr"/>
-      <c r="G86" s="1" t="inlineStr"/>
-      <c r="H86" s="1" t="inlineStr"/>
+      <c r="G86" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H86" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J86" s="1" t="inlineStr"/>
       <c r="K86" s="1" t="inlineStr"/>
       <c r="L86" s="1" t="inlineStr"/>
@@ -2559,13 +3783,41 @@
       <c r="P86" s="1" t="inlineStr"/>
     </row>
     <row r="87" ht="14.7" customHeight="1">
-      <c r="B87" s="1" t="inlineStr"/>
-      <c r="C87" s="1" t="inlineStr"/>
-      <c r="D87" s="1" t="inlineStr"/>
-      <c r="E87" s="1" t="inlineStr"/>
-      <c r="F87" s="1" t="inlineStr"/>
-      <c r="G87" s="1" t="inlineStr"/>
-      <c r="H87" s="1" t="inlineStr"/>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F87" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G87" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H87" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="J87" s="1" t="inlineStr"/>
       <c r="K87" s="1" t="inlineStr"/>
       <c r="L87" s="1" t="inlineStr"/>
@@ -2575,13 +3827,41 @@
       <c r="P87" s="1" t="inlineStr"/>
     </row>
     <row r="88" ht="14.7" customHeight="1">
-      <c r="B88" s="1" t="inlineStr"/>
-      <c r="C88" s="1" t="inlineStr"/>
-      <c r="D88" s="1" t="inlineStr"/>
-      <c r="E88" s="1" t="inlineStr"/>
-      <c r="F88" s="1" t="inlineStr"/>
-      <c r="G88" s="1" t="inlineStr"/>
-      <c r="H88" s="1" t="inlineStr"/>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F88" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G88" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H88" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="J88" s="1" t="inlineStr"/>
       <c r="K88" s="1" t="inlineStr"/>
       <c r="L88" s="1" t="inlineStr"/>
@@ -2591,13 +3871,41 @@
       <c r="P88" s="1" t="inlineStr"/>
     </row>
     <row r="89" ht="14.7" customHeight="1">
-      <c r="B89" s="1" t="inlineStr"/>
-      <c r="C89" s="1" t="inlineStr"/>
-      <c r="D89" s="1" t="inlineStr"/>
-      <c r="E89" s="1" t="inlineStr"/>
-      <c r="F89" s="1" t="inlineStr"/>
-      <c r="G89" s="1" t="inlineStr"/>
-      <c r="H89" s="1" t="inlineStr"/>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F89" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G89" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H89" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="J89" s="1" t="inlineStr"/>
       <c r="K89" s="1" t="inlineStr"/>
       <c r="L89" s="1" t="inlineStr"/>
@@ -2607,13 +3915,41 @@
       <c r="P89" s="1" t="inlineStr"/>
     </row>
     <row r="90" ht="14.7" customHeight="1">
-      <c r="B90" s="1" t="inlineStr"/>
-      <c r="C90" s="1" t="inlineStr"/>
-      <c r="D90" s="1" t="inlineStr"/>
-      <c r="E90" s="1" t="inlineStr"/>
-      <c r="F90" s="1" t="inlineStr"/>
-      <c r="G90" s="1" t="inlineStr"/>
-      <c r="H90" s="1" t="inlineStr"/>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F90" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G90" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H90" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="J90" s="1" t="inlineStr"/>
       <c r="K90" s="1" t="inlineStr"/>
       <c r="L90" s="1" t="inlineStr"/>
@@ -2735,13 +4071,41 @@
       </c>
     </row>
     <row r="94" ht="14.7" customHeight="1">
-      <c r="B94" s="1" t="inlineStr"/>
-      <c r="C94" s="1" t="inlineStr"/>
-      <c r="D94" s="1" t="inlineStr"/>
-      <c r="E94" s="1" t="inlineStr"/>
-      <c r="F94" s="1" t="inlineStr"/>
-      <c r="G94" s="1" t="inlineStr"/>
-      <c r="H94" s="1" t="inlineStr"/>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F94" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G94" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H94" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="J94" s="1" t="inlineStr"/>
       <c r="K94" s="1" t="inlineStr"/>
       <c r="L94" s="1" t="inlineStr"/>
@@ -2751,13 +4115,41 @@
       <c r="P94" s="1" t="inlineStr"/>
     </row>
     <row r="95" ht="14.7" customHeight="1">
-      <c r="B95" s="1" t="inlineStr"/>
-      <c r="C95" s="1" t="inlineStr"/>
-      <c r="D95" s="1" t="inlineStr"/>
-      <c r="E95" s="1" t="inlineStr"/>
-      <c r="F95" s="1" t="inlineStr"/>
-      <c r="G95" s="1" t="inlineStr"/>
-      <c r="H95" s="1" t="inlineStr"/>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F95" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G95" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H95" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="J95" s="1" t="inlineStr"/>
       <c r="K95" s="1" t="inlineStr"/>
       <c r="L95" s="1" t="inlineStr"/>
@@ -2767,13 +4159,41 @@
       <c r="P95" s="1" t="inlineStr"/>
     </row>
     <row r="96" ht="14.7" customHeight="1">
-      <c r="B96" s="1" t="inlineStr"/>
-      <c r="C96" s="1" t="inlineStr"/>
-      <c r="D96" s="1" t="inlineStr"/>
-      <c r="E96" s="1" t="inlineStr"/>
-      <c r="F96" s="1" t="inlineStr"/>
-      <c r="G96" s="1" t="inlineStr"/>
-      <c r="H96" s="1" t="inlineStr"/>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F96" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G96" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H96" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="J96" s="1" t="inlineStr"/>
       <c r="K96" s="1" t="inlineStr"/>
       <c r="L96" s="1" t="inlineStr"/>
@@ -2783,13 +4203,41 @@
       <c r="P96" s="1" t="inlineStr"/>
     </row>
     <row r="97" ht="14.7" customHeight="1">
-      <c r="B97" s="1" t="inlineStr"/>
-      <c r="C97" s="1" t="inlineStr"/>
-      <c r="D97" s="1" t="inlineStr"/>
-      <c r="E97" s="1" t="inlineStr"/>
-      <c r="F97" s="1" t="inlineStr"/>
-      <c r="G97" s="1" t="inlineStr"/>
-      <c r="H97" s="1" t="inlineStr"/>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F97" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G97" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H97" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="J97" s="1" t="inlineStr"/>
       <c r="K97" s="1" t="inlineStr"/>
       <c r="L97" s="1" t="inlineStr"/>
@@ -2799,9 +4247,21 @@
       <c r="P97" s="1" t="inlineStr"/>
     </row>
     <row r="98" ht="14.7" customHeight="1">
-      <c r="B98" s="1" t="inlineStr"/>
-      <c r="C98" s="1" t="inlineStr"/>
-      <c r="D98" s="1" t="inlineStr"/>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="E98" s="1" t="inlineStr"/>
       <c r="F98" s="1" t="inlineStr"/>
       <c r="G98" s="1" t="inlineStr"/>

--- a/src/16 Scientific Libraries/06 Spreadsheets/data/calendar.xlsx
+++ b/src/16 Scientific Libraries/06 Spreadsheets/data/calendar.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
     <col width="4" customWidth="1" min="2" max="2"/>
     <col width="4" customWidth="1" min="3" max="3"/>
     <col width="4" customWidth="1" min="4" max="4"/>
@@ -435,47 +434,47 @@
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
-    <col width="12" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
-    <col width="12" customWidth="1" min="17" max="17"/>
-    <col width="12" customWidth="1" min="18" max="18"/>
-    <col width="12" customWidth="1" min="19" max="19"/>
-    <col width="12" customWidth="1" min="20" max="20"/>
-    <col width="12" customWidth="1" min="21" max="21"/>
-    <col width="12" customWidth="1" min="22" max="22"/>
-    <col width="12" customWidth="1" min="23" max="23"/>
-    <col width="12" customWidth="1" min="24" max="24"/>
-    <col width="12" customWidth="1" min="25" max="25"/>
-    <col width="12" customWidth="1" min="26" max="26"/>
-    <col width="12" customWidth="1" min="27" max="27"/>
-    <col width="12" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="12" customWidth="1" min="30" max="30"/>
-    <col width="12" customWidth="1" min="31" max="31"/>
-    <col width="12" customWidth="1" min="32" max="32"/>
-    <col width="12" customWidth="1" min="33" max="33"/>
-    <col width="12" customWidth="1" min="34" max="34"/>
-    <col width="12" customWidth="1" min="35" max="35"/>
-    <col width="12" customWidth="1" min="36" max="36"/>
-    <col width="12" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="12" customWidth="1" min="39" max="39"/>
-    <col width="12" customWidth="1" min="40" max="40"/>
-    <col width="12" customWidth="1" min="41" max="41"/>
-    <col width="12" customWidth="1" min="42" max="42"/>
-    <col width="12" customWidth="1" min="43" max="43"/>
-    <col width="12" customWidth="1" min="44" max="44"/>
-    <col width="12" customWidth="1" min="45" max="45"/>
-    <col width="12" customWidth="1" min="46" max="46"/>
-    <col width="12" customWidth="1" min="47" max="47"/>
-    <col width="12" customWidth="1" min="48" max="48"/>
-    <col width="12" customWidth="1" min="49" max="49"/>
+    <col width="24" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
+    <col width="24" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="24" customWidth="1" min="15" max="15"/>
+    <col width="24" customWidth="1" min="16" max="16"/>
+    <col width="24" customWidth="1" min="17" max="17"/>
+    <col width="24" customWidth="1" min="18" max="18"/>
+    <col width="24" customWidth="1" min="19" max="19"/>
+    <col width="24" customWidth="1" min="20" max="20"/>
+    <col width="24" customWidth="1" min="21" max="21"/>
+    <col width="24" customWidth="1" min="22" max="22"/>
+    <col width="24" customWidth="1" min="23" max="23"/>
+    <col width="24" customWidth="1" min="24" max="24"/>
+    <col width="24" customWidth="1" min="25" max="25"/>
+    <col width="24" customWidth="1" min="26" max="26"/>
+    <col width="24" customWidth="1" min="27" max="27"/>
+    <col width="24" customWidth="1" min="28" max="28"/>
+    <col width="24" customWidth="1" min="29" max="29"/>
+    <col width="24" customWidth="1" min="30" max="30"/>
+    <col width="24" customWidth="1" min="31" max="31"/>
+    <col width="24" customWidth="1" min="32" max="32"/>
+    <col width="24" customWidth="1" min="33" max="33"/>
+    <col width="24" customWidth="1" min="34" max="34"/>
+    <col width="24" customWidth="1" min="35" max="35"/>
+    <col width="24" customWidth="1" min="36" max="36"/>
+    <col width="24" customWidth="1" min="37" max="37"/>
+    <col width="24" customWidth="1" min="38" max="38"/>
+    <col width="24" customWidth="1" min="39" max="39"/>
+    <col width="24" customWidth="1" min="40" max="40"/>
+    <col width="24" customWidth="1" min="41" max="41"/>
+    <col width="24" customWidth="1" min="42" max="42"/>
+    <col width="24" customWidth="1" min="43" max="43"/>
+    <col width="24" customWidth="1" min="44" max="44"/>
+    <col width="24" customWidth="1" min="45" max="45"/>
+    <col width="24" customWidth="1" min="46" max="46"/>
+    <col width="24" customWidth="1" min="47" max="47"/>
+    <col width="24" customWidth="1" min="48" max="48"/>
+    <col width="24" customWidth="1" min="49" max="49"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.7" customHeight="1">

--- a/src/16 Scientific Libraries/06 Spreadsheets/data/calendar.xlsx
+++ b/src/16 Scientific Libraries/06 Spreadsheets/data/calendar.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:P98"/>
+  <dimension ref="B1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,29 +592,25 @@
     <row r="4" ht="14.7" customHeight="1">
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" s="1" t="inlineStr"/>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr"/>
+      <c r="E4" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr"/>
@@ -628,37 +624,37 @@
     <row r="5" ht="14.7" customHeight="1">
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr"/>
@@ -672,37 +668,37 @@
     <row r="6" ht="14.7" customHeight="1">
       <c r="B6" s="1" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="E6" s="1" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="H6" s="1" t="inlineStr">
         <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr"/>
@@ -716,37 +712,37 @@
     <row r="7" ht="14.7" customHeight="1">
       <c r="B7" s="1" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr"/>
@@ -760,30 +756,34 @@
     <row r="8" ht="14.7" customHeight="1">
       <c r="B8" s="1" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="D8" s="1" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="E8" s="1" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="F8" s="1" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr"/>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="J8" s="1" t="inlineStr"/>
       <c r="K8" s="1" t="inlineStr"/>
@@ -911,14 +911,10 @@
       <c r="D12" s="1" t="inlineStr"/>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr"/>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr"/>
@@ -932,37 +928,37 @@
     <row r="13" ht="14.7" customHeight="1">
       <c r="B13" s="1" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="E13" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="F13" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="H13" s="1" t="inlineStr">
         <is>
           <t>8</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr"/>
@@ -976,37 +972,37 @@
     <row r="14" ht="14.7" customHeight="1">
       <c r="B14" s="1" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="D14" s="1" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="E14" s="1" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="F14" s="1" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="G14" s="1" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="H14" s="1" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr"/>
@@ -1020,37 +1016,37 @@
     <row r="15" ht="14.7" customHeight="1">
       <c r="B15" s="1" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="D15" s="1" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="E15" s="1" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="H15" s="1" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr"/>
@@ -1064,30 +1060,34 @@
     <row r="16" ht="14.7" customHeight="1">
       <c r="B16" s="1" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="D16" s="1" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="E16" s="1" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="F16" s="1" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="G16" s="1" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr"/>
       <c r="H16" s="1" t="inlineStr"/>
       <c r="J16" s="1" t="inlineStr"/>
       <c r="K16" s="1" t="inlineStr"/>
@@ -1215,14 +1215,10 @@
       <c r="D20" s="1" t="inlineStr"/>
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr"/>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" s="1" t="inlineStr"/>
+      <c r="H20" s="1" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr"/>
@@ -1236,37 +1232,37 @@
     <row r="21" ht="14.7" customHeight="1">
       <c r="B21" s="1" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="D21" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="E21" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="F21" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="G21" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="H21" s="1" t="inlineStr">
         <is>
           <t>8</t>
-        </is>
-      </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr"/>
@@ -1280,37 +1276,37 @@
     <row r="22" ht="14.7" customHeight="1">
       <c r="B22" s="1" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="D22" s="1" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="E22" s="1" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="F22" s="1" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="G22" s="1" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="H22" s="1" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr"/>
@@ -1324,37 +1320,37 @@
     <row r="23" ht="14.7" customHeight="1">
       <c r="B23" s="1" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="D23" s="1" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="E23" s="1" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="H23" s="1" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr"/>
@@ -1368,37 +1364,37 @@
     <row r="24" ht="14.7" customHeight="1">
       <c r="B24" s="1" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="D24" s="1" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="E24" s="1" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="F24" s="1" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="H24" s="1" t="inlineStr">
         <is>
           <t>29</t>
-        </is>
-      </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr"/>
@@ -1412,10 +1408,14 @@
     <row r="25" ht="14.7" customHeight="1">
       <c r="B25" s="1" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr"/>
       <c r="D25" s="1" t="inlineStr"/>
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1" t="inlineStr"/>
@@ -1543,34 +1543,30 @@
     </row>
     <row r="29" ht="14.7" customHeight="1">
       <c r="B29" s="1" t="inlineStr"/>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr"/>
+      <c r="D29" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="E29" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="F29" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="H29" s="1" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr"/>
@@ -1584,37 +1580,37 @@
     <row r="30" ht="14.7" customHeight="1">
       <c r="B30" s="1" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="D30" s="1" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="E30" s="1" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="F30" s="1" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="G30" s="1" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="H30" s="1" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr"/>
@@ -1628,37 +1624,37 @@
     <row r="31" ht="14.7" customHeight="1">
       <c r="B31" s="1" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="D31" s="1" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="E31" s="1" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="F31" s="1" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="G31" s="1" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="H31" s="1" t="inlineStr">
         <is>
           <t>19</t>
-        </is>
-      </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr"/>
@@ -1672,37 +1668,37 @@
     <row r="32" ht="14.7" customHeight="1">
       <c r="B32" s="1" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="D32" s="1" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="E32" s="1" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="F32" s="1" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="G32" s="1" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="H32" s="1" t="inlineStr">
         <is>
           <t>26</t>
-        </is>
-      </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr"/>
@@ -1716,20 +1712,24 @@
     <row r="33" ht="14.7" customHeight="1">
       <c r="B33" s="1" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="D33" s="1" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="E33" s="1" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr"/>
       <c r="G33" s="1" t="inlineStr"/>
       <c r="H33" s="1" t="inlineStr"/>
@@ -1857,24 +1857,20 @@
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" s="1" t="inlineStr"/>
       <c r="D37" s="1" t="inlineStr"/>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" s="1" t="inlineStr"/>
+      <c r="F37" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="G37" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="H37" s="1" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr"/>
@@ -1888,37 +1884,37 @@
     <row r="38" ht="14.7" customHeight="1">
       <c r="B38" s="1" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="D38" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="E38" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="F38" s="1" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="G38" s="1" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="H38" s="1" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr"/>
@@ -1932,37 +1928,37 @@
     <row r="39" ht="14.7" customHeight="1">
       <c r="B39" s="1" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="D39" s="1" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="E39" s="1" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="F39" s="1" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="G39" s="1" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="H39" s="1" t="inlineStr">
         <is>
           <t>17</t>
-        </is>
-      </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
         </is>
       </c>
       <c r="J39" s="1" t="inlineStr"/>
@@ -1976,37 +1972,37 @@
     <row r="40" ht="14.7" customHeight="1">
       <c r="B40" s="1" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="D40" s="1" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="E40" s="1" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="F40" s="1" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="G40" s="1" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="H40" s="1" t="inlineStr">
         <is>
           <t>24</t>
-        </is>
-      </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
         </is>
       </c>
       <c r="J40" s="1" t="inlineStr"/>
@@ -2020,35 +2016,39 @@
     <row r="41" ht="14.7" customHeight="1">
       <c r="B41" s="1" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="D41" s="1" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="E41" s="1" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="F41" s="1" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="G41" s="1" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="H41" s="1" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr"/>
       <c r="J41" s="1" t="inlineStr"/>
       <c r="K41" s="1" t="inlineStr"/>
       <c r="L41" s="1" t="inlineStr"/>
@@ -2170,15 +2170,39 @@
       </c>
     </row>
     <row r="45" ht="14.7" customHeight="1">
-      <c r="B45" s="1" t="inlineStr"/>
-      <c r="C45" s="1" t="inlineStr"/>
-      <c r="D45" s="1" t="inlineStr"/>
-      <c r="E45" s="1" t="inlineStr"/>
-      <c r="F45" s="1" t="inlineStr"/>
-      <c r="G45" s="1" t="inlineStr"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J45" s="1" t="inlineStr"/>
@@ -2192,37 +2216,37 @@
     <row r="46" ht="14.7" customHeight="1">
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J46" s="1" t="inlineStr"/>
@@ -2236,37 +2260,37 @@
     <row r="47" ht="14.7" customHeight="1">
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J47" s="1" t="inlineStr"/>
@@ -2280,37 +2304,37 @@
     <row r="48" ht="14.7" customHeight="1">
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H48" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="J48" s="1" t="inlineStr"/>
@@ -2324,39 +2348,19 @@
     <row r="49" ht="14.7" customHeight="1">
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="F49" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="G49" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr"/>
+      <c r="E49" s="1" t="inlineStr"/>
+      <c r="F49" s="1" t="inlineStr"/>
+      <c r="G49" s="1" t="inlineStr"/>
+      <c r="H49" s="1" t="inlineStr"/>
       <c r="J49" s="1" t="inlineStr"/>
       <c r="K49" s="1" t="inlineStr"/>
       <c r="L49" s="1" t="inlineStr"/>
@@ -2366,11 +2370,7 @@
       <c r="P49" s="1" t="inlineStr"/>
     </row>
     <row r="50" ht="14.7" customHeight="1">
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" s="1" t="inlineStr"/>
       <c r="D50" s="1" t="inlineStr"/>
       <c r="E50" s="1" t="inlineStr"/>
@@ -2389,144 +2389,168 @@
       <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" s="1" t="inlineStr"/>
       <c r="D51" s="1" t="inlineStr"/>
-      <c r="E51" s="1" t="inlineStr"/>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
       <c r="F51" s="1" t="inlineStr"/>
       <c r="G51" s="1" t="inlineStr"/>
       <c r="H51" s="1" t="inlineStr"/>
       <c r="J51" s="1" t="inlineStr"/>
       <c r="K51" s="1" t="inlineStr"/>
       <c r="L51" s="1" t="inlineStr"/>
-      <c r="M51" s="1" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>JULY</t>
+        </is>
+      </c>
       <c r="N51" s="1" t="inlineStr"/>
       <c r="O51" s="1" t="inlineStr"/>
       <c r="P51" s="1" t="inlineStr"/>
     </row>
     <row r="52" ht="14.7" customHeight="1">
-      <c r="B52" s="1" t="inlineStr"/>
-      <c r="C52" s="1" t="inlineStr"/>
-      <c r="D52" s="1" t="inlineStr"/>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>JULY</t>
-        </is>
-      </c>
-      <c r="F52" s="1" t="inlineStr"/>
-      <c r="G52" s="1" t="inlineStr"/>
-      <c r="H52" s="1" t="inlineStr"/>
-      <c r="J52" s="1" t="inlineStr"/>
-      <c r="K52" s="1" t="inlineStr"/>
-      <c r="L52" s="1" t="inlineStr"/>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>JULY</t>
-        </is>
-      </c>
-      <c r="N52" s="1" t="inlineStr"/>
-      <c r="O52" s="1" t="inlineStr"/>
-      <c r="P52" s="1" t="inlineStr"/>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="14.7" customHeight="1">
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>Sa</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Su</t>
-        </is>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="M53" s="2" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="N53" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O53" s="2" t="inlineStr">
-        <is>
-          <t>Sa</t>
-        </is>
-      </c>
-      <c r="P53" s="2" t="inlineStr">
-        <is>
-          <t>Su</t>
-        </is>
-      </c>
+      <c r="B53" s="1" t="inlineStr"/>
+      <c r="C53" s="1" t="inlineStr"/>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G53" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H53" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J53" s="1" t="inlineStr"/>
+      <c r="K53" s="1" t="inlineStr"/>
+      <c r="L53" s="1" t="inlineStr"/>
+      <c r="M53" s="1" t="inlineStr"/>
+      <c r="N53" s="1" t="inlineStr"/>
+      <c r="O53" s="1" t="inlineStr"/>
+      <c r="P53" s="1" t="inlineStr"/>
     </row>
     <row r="54" ht="14.7" customHeight="1">
-      <c r="B54" s="1" t="inlineStr"/>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H54" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J54" s="1" t="inlineStr"/>
@@ -2540,37 +2564,37 @@
     <row r="55" ht="14.7" customHeight="1">
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H55" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J55" s="1" t="inlineStr"/>
@@ -2584,37 +2608,37 @@
     <row r="56" ht="14.7" customHeight="1">
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H56" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J56" s="1" t="inlineStr"/>
@@ -2628,39 +2652,31 @@
     <row r="57" ht="14.7" customHeight="1">
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="G57" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="inlineStr"/>
+      <c r="H57" s="1" t="inlineStr"/>
       <c r="J57" s="1" t="inlineStr"/>
       <c r="K57" s="1" t="inlineStr"/>
       <c r="L57" s="1" t="inlineStr"/>
@@ -2670,26 +2686,10 @@
       <c r="P57" s="1" t="inlineStr"/>
     </row>
     <row r="58" ht="14.7" customHeight="1">
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E58" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="B58" s="1" t="inlineStr"/>
+      <c r="C58" s="1" t="inlineStr"/>
+      <c r="D58" s="1" t="inlineStr"/>
+      <c r="E58" s="1" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr"/>
       <c r="G58" s="1" t="inlineStr"/>
       <c r="H58" s="1" t="inlineStr"/>
@@ -2705,132 +2705,156 @@
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" s="1" t="inlineStr"/>
       <c r="D59" s="1" t="inlineStr"/>
-      <c r="E59" s="1" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>AUGUST</t>
+        </is>
+      </c>
       <c r="F59" s="1" t="inlineStr"/>
       <c r="G59" s="1" t="inlineStr"/>
       <c r="H59" s="1" t="inlineStr"/>
       <c r="J59" s="1" t="inlineStr"/>
       <c r="K59" s="1" t="inlineStr"/>
       <c r="L59" s="1" t="inlineStr"/>
-      <c r="M59" s="1" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>AUGUST</t>
+        </is>
+      </c>
       <c r="N59" s="1" t="inlineStr"/>
       <c r="O59" s="1" t="inlineStr"/>
       <c r="P59" s="1" t="inlineStr"/>
     </row>
     <row r="60" ht="14.7" customHeight="1">
-      <c r="B60" s="1" t="inlineStr"/>
-      <c r="C60" s="1" t="inlineStr"/>
-      <c r="D60" s="1" t="inlineStr"/>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>AUGUST</t>
-        </is>
-      </c>
-      <c r="F60" s="1" t="inlineStr"/>
-      <c r="G60" s="1" t="inlineStr"/>
-      <c r="H60" s="1" t="inlineStr"/>
-      <c r="J60" s="1" t="inlineStr"/>
-      <c r="K60" s="1" t="inlineStr"/>
-      <c r="L60" s="1" t="inlineStr"/>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>AUGUST</t>
-        </is>
-      </c>
-      <c r="N60" s="1" t="inlineStr"/>
-      <c r="O60" s="1" t="inlineStr"/>
-      <c r="P60" s="1" t="inlineStr"/>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="N60" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O60" s="2" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="P60" s="2" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="14.7" customHeight="1">
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>Sa</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Su</t>
-        </is>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="M61" s="2" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="N61" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O61" s="2" t="inlineStr">
-        <is>
-          <t>Sa</t>
-        </is>
-      </c>
-      <c r="P61" s="2" t="inlineStr">
-        <is>
-          <t>Su</t>
-        </is>
-      </c>
+      <c r="B61" s="1" t="inlineStr"/>
+      <c r="C61" s="1" t="inlineStr"/>
+      <c r="D61" s="1" t="inlineStr"/>
+      <c r="E61" s="1" t="inlineStr"/>
+      <c r="F61" s="1" t="inlineStr"/>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H61" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J61" s="1" t="inlineStr"/>
+      <c r="K61" s="1" t="inlineStr"/>
+      <c r="L61" s="1" t="inlineStr"/>
+      <c r="M61" s="1" t="inlineStr"/>
+      <c r="N61" s="1" t="inlineStr"/>
+      <c r="O61" s="1" t="inlineStr"/>
+      <c r="P61" s="1" t="inlineStr"/>
     </row>
     <row r="62" ht="14.7" customHeight="1">
-      <c r="B62" s="1" t="inlineStr"/>
-      <c r="C62" s="1" t="inlineStr"/>
-      <c r="D62" s="1" t="inlineStr"/>
-      <c r="E62" s="1" t="inlineStr"/>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H62" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J62" s="1" t="inlineStr"/>
@@ -2844,37 +2868,37 @@
     <row r="63" ht="14.7" customHeight="1">
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H63" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J63" s="1" t="inlineStr"/>
@@ -2888,37 +2912,37 @@
     <row r="64" ht="14.7" customHeight="1">
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H64" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J64" s="1" t="inlineStr"/>
@@ -2932,37 +2956,37 @@
     <row r="65" ht="14.7" customHeight="1">
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H65" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J65" s="1" t="inlineStr"/>
@@ -2976,39 +3000,15 @@
     <row r="66" ht="14.7" customHeight="1">
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C66" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E66" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="F66" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="G66" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H66" s="1" t="inlineStr">
-        <is>
           <t>31</t>
         </is>
       </c>
+      <c r="C66" s="1" t="inlineStr"/>
+      <c r="D66" s="1" t="inlineStr"/>
+      <c r="E66" s="1" t="inlineStr"/>
+      <c r="F66" s="1" t="inlineStr"/>
+      <c r="G66" s="1" t="inlineStr"/>
+      <c r="H66" s="1" t="inlineStr"/>
       <c r="J66" s="1" t="inlineStr"/>
       <c r="K66" s="1" t="inlineStr"/>
       <c r="L66" s="1" t="inlineStr"/>
@@ -3130,39 +3130,35 @@
       </c>
     </row>
     <row r="70" ht="14.7" customHeight="1">
-      <c r="B70" s="1" t="inlineStr">
+      <c r="B70" s="1" t="inlineStr"/>
+      <c r="C70" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C70" s="1" t="inlineStr">
+      <c r="D70" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D70" s="1" t="inlineStr">
+      <c r="E70" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E70" s="1" t="inlineStr">
+      <c r="F70" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F70" s="1" t="inlineStr">
+      <c r="G70" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G70" s="1" t="inlineStr">
+      <c r="H70" s="1" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="H70" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
       <c r="J70" s="1" t="inlineStr"/>
@@ -3176,37 +3172,37 @@
     <row r="71" ht="14.7" customHeight="1">
       <c r="B71" s="1" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C71" s="1" t="inlineStr">
+      <c r="D71" s="1" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="D71" s="1" t="inlineStr">
+      <c r="E71" s="1" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E71" s="1" t="inlineStr">
+      <c r="F71" s="1" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="F71" s="1" t="inlineStr">
+      <c r="G71" s="1" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G71" s="1" t="inlineStr">
+      <c r="H71" s="1" t="inlineStr">
         <is>
           <t>13</t>
-        </is>
-      </c>
-      <c r="H71" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
         </is>
       </c>
       <c r="J71" s="1" t="inlineStr"/>
@@ -3220,37 +3216,37 @@
     <row r="72" ht="14.7" customHeight="1">
       <c r="B72" s="1" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C72" s="1" t="inlineStr">
+      <c r="D72" s="1" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D72" s="1" t="inlineStr">
+      <c r="E72" s="1" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E72" s="1" t="inlineStr">
+      <c r="F72" s="1" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="F72" s="1" t="inlineStr">
+      <c r="G72" s="1" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="G72" s="1" t="inlineStr">
+      <c r="H72" s="1" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="H72" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
         </is>
       </c>
       <c r="J72" s="1" t="inlineStr"/>
@@ -3264,37 +3260,37 @@
     <row r="73" ht="14.7" customHeight="1">
       <c r="B73" s="1" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C73" s="1" t="inlineStr">
+      <c r="D73" s="1" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="D73" s="1" t="inlineStr">
+      <c r="E73" s="1" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E73" s="1" t="inlineStr">
+      <c r="F73" s="1" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="F73" s="1" t="inlineStr">
+      <c r="G73" s="1" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G73" s="1" t="inlineStr">
+      <c r="H73" s="1" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="H73" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
       <c r="J73" s="1" t="inlineStr"/>
@@ -3308,15 +3304,19 @@
     <row r="74" ht="14.7" customHeight="1">
       <c r="B74" s="1" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C74" s="1" t="inlineStr">
+      <c r="D74" s="1" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="D74" s="1" t="inlineStr"/>
       <c r="E74" s="1" t="inlineStr"/>
       <c r="F74" s="1" t="inlineStr"/>
       <c r="G74" s="1" t="inlineStr"/>
@@ -3444,29 +3444,25 @@
     <row r="78" ht="14.7" customHeight="1">
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" s="1" t="inlineStr"/>
-      <c r="D78" s="1" t="inlineStr">
+      <c r="D78" s="1" t="inlineStr"/>
+      <c r="E78" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E78" s="1" t="inlineStr">
+      <c r="F78" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F78" s="1" t="inlineStr">
+      <c r="G78" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G78" s="1" t="inlineStr">
+      <c r="H78" s="1" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="H78" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="J78" s="1" t="inlineStr"/>
@@ -3480,37 +3476,37 @@
     <row r="79" ht="14.7" customHeight="1">
       <c r="B79" s="1" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C79" s="1" t="inlineStr">
+      <c r="D79" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D79" s="1" t="inlineStr">
+      <c r="E79" s="1" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E79" s="1" t="inlineStr">
+      <c r="F79" s="1" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F79" s="1" t="inlineStr">
+      <c r="G79" s="1" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G79" s="1" t="inlineStr">
+      <c r="H79" s="1" t="inlineStr">
         <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="H79" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
       <c r="J79" s="1" t="inlineStr"/>
@@ -3524,37 +3520,37 @@
     <row r="80" ht="14.7" customHeight="1">
       <c r="B80" s="1" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C80" s="1" t="inlineStr">
+      <c r="D80" s="1" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D80" s="1" t="inlineStr">
+      <c r="E80" s="1" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E80" s="1" t="inlineStr">
+      <c r="F80" s="1" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="F80" s="1" t="inlineStr">
+      <c r="G80" s="1" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G80" s="1" t="inlineStr">
+      <c r="H80" s="1" t="inlineStr">
         <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="H80" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
         </is>
       </c>
       <c r="J80" s="1" t="inlineStr"/>
@@ -3568,37 +3564,37 @@
     <row r="81" ht="14.7" customHeight="1">
       <c r="B81" s="1" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C81" s="1" t="inlineStr">
+      <c r="D81" s="1" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="D81" s="1" t="inlineStr">
+      <c r="E81" s="1" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E81" s="1" t="inlineStr">
+      <c r="F81" s="1" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="F81" s="1" t="inlineStr">
+      <c r="G81" s="1" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="G81" s="1" t="inlineStr">
+      <c r="H81" s="1" t="inlineStr">
         <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="H81" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
       <c r="J81" s="1" t="inlineStr"/>
@@ -3612,30 +3608,34 @@
     <row r="82" ht="14.7" customHeight="1">
       <c r="B82" s="1" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C82" s="1" t="inlineStr">
+      <c r="D82" s="1" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D82" s="1" t="inlineStr">
+      <c r="E82" s="1" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="E82" s="1" t="inlineStr">
+      <c r="F82" s="1" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="F82" s="1" t="inlineStr">
+      <c r="G82" s="1" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G82" s="1" t="inlineStr"/>
       <c r="H82" s="1" t="inlineStr"/>
       <c r="J82" s="1" t="inlineStr"/>
       <c r="K82" s="1" t="inlineStr"/>
@@ -3763,14 +3763,10 @@
       <c r="D86" s="1" t="inlineStr"/>
       <c r="E86" s="1" t="inlineStr"/>
       <c r="F86" s="1" t="inlineStr"/>
-      <c r="G86" s="1" t="inlineStr">
+      <c r="G86" s="1" t="inlineStr"/>
+      <c r="H86" s="1" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="H86" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="J86" s="1" t="inlineStr"/>
@@ -3784,37 +3780,37 @@
     <row r="87" ht="14.7" customHeight="1">
       <c r="B87" s="1" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C87" s="1" t="inlineStr">
+      <c r="D87" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D87" s="1" t="inlineStr">
+      <c r="E87" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E87" s="1" t="inlineStr">
+      <c r="F87" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F87" s="1" t="inlineStr">
+      <c r="G87" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G87" s="1" t="inlineStr">
+      <c r="H87" s="1" t="inlineStr">
         <is>
           <t>8</t>
-        </is>
-      </c>
-      <c r="H87" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
       <c r="J87" s="1" t="inlineStr"/>
@@ -3828,37 +3824,37 @@
     <row r="88" ht="14.7" customHeight="1">
       <c r="B88" s="1" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C88" s="1" t="inlineStr">
+      <c r="D88" s="1" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D88" s="1" t="inlineStr">
+      <c r="E88" s="1" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E88" s="1" t="inlineStr">
+      <c r="F88" s="1" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="F88" s="1" t="inlineStr">
+      <c r="G88" s="1" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="G88" s="1" t="inlineStr">
+      <c r="H88" s="1" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="H88" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
       <c r="J88" s="1" t="inlineStr"/>
@@ -3872,37 +3868,37 @@
     <row r="89" ht="14.7" customHeight="1">
       <c r="B89" s="1" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C89" s="1" t="inlineStr">
+      <c r="D89" s="1" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D89" s="1" t="inlineStr">
+      <c r="E89" s="1" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E89" s="1" t="inlineStr">
+      <c r="F89" s="1" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="F89" s="1" t="inlineStr">
+      <c r="G89" s="1" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G89" s="1" t="inlineStr">
+      <c r="H89" s="1" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="H89" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
       <c r="J89" s="1" t="inlineStr"/>
@@ -3916,37 +3912,37 @@
     <row r="90" ht="14.7" customHeight="1">
       <c r="B90" s="1" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C90" s="1" t="inlineStr">
+      <c r="D90" s="1" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D90" s="1" t="inlineStr">
+      <c r="E90" s="1" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E90" s="1" t="inlineStr">
+      <c r="F90" s="1" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="F90" s="1" t="inlineStr">
+      <c r="G90" s="1" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G90" s="1" t="inlineStr">
+      <c r="H90" s="1" t="inlineStr">
         <is>
           <t>29</t>
-        </is>
-      </c>
-      <c r="H90" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
       <c r="J90" s="1" t="inlineStr"/>
@@ -3958,7 +3954,11 @@
       <c r="P90" s="1" t="inlineStr"/>
     </row>
     <row r="91" ht="14.7" customHeight="1">
-      <c r="B91" s="1" t="inlineStr"/>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="C91" s="1" t="inlineStr"/>
       <c r="D91" s="1" t="inlineStr"/>
       <c r="E91" s="1" t="inlineStr"/>
@@ -3977,176 +3977,144 @@
       <c r="B92" s="1" t="inlineStr"/>
       <c r="C92" s="1" t="inlineStr"/>
       <c r="D92" s="1" t="inlineStr"/>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>DECEMBER</t>
-        </is>
-      </c>
+      <c r="E92" s="1" t="inlineStr"/>
       <c r="F92" s="1" t="inlineStr"/>
       <c r="G92" s="1" t="inlineStr"/>
       <c r="H92" s="1" t="inlineStr"/>
       <c r="J92" s="1" t="inlineStr"/>
       <c r="K92" s="1" t="inlineStr"/>
       <c r="L92" s="1" t="inlineStr"/>
-      <c r="M92" s="2" t="inlineStr">
-        <is>
-          <t>DECEMBER</t>
-        </is>
-      </c>
+      <c r="M92" s="1" t="inlineStr"/>
       <c r="N92" s="1" t="inlineStr"/>
       <c r="O92" s="1" t="inlineStr"/>
       <c r="P92" s="1" t="inlineStr"/>
     </row>
     <row r="93" ht="14.7" customHeight="1">
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" s="1" t="inlineStr"/>
+      <c r="C93" s="1" t="inlineStr"/>
+      <c r="D93" s="1" t="inlineStr"/>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>DECEMBER</t>
+        </is>
+      </c>
+      <c r="F93" s="1" t="inlineStr"/>
+      <c r="G93" s="1" t="inlineStr"/>
+      <c r="H93" s="1" t="inlineStr"/>
+      <c r="J93" s="1" t="inlineStr"/>
+      <c r="K93" s="1" t="inlineStr"/>
+      <c r="L93" s="1" t="inlineStr"/>
+      <c r="M93" s="2" t="inlineStr">
+        <is>
+          <t>DECEMBER</t>
+        </is>
+      </c>
+      <c r="N93" s="1" t="inlineStr"/>
+      <c r="O93" s="1" t="inlineStr"/>
+      <c r="P93" s="1" t="inlineStr"/>
+    </row>
+    <row r="94" ht="14.7" customHeight="1">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="D93" s="2" t="inlineStr">
+      <c r="D94" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="E93" s="2" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
+      <c r="F94" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G93" s="2" t="inlineStr">
+      <c r="G94" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="H93" s="2" t="inlineStr">
+      <c r="H94" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
+      <c r="J94" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K93" s="2" t="inlineStr">
+      <c r="K94" s="2" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="L93" s="2" t="inlineStr">
+      <c r="L94" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="M93" s="2" t="inlineStr">
+      <c r="M94" s="2" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="N93" s="2" t="inlineStr">
+      <c r="N94" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="O93" s="2" t="inlineStr">
+      <c r="O94" s="2" t="inlineStr">
         <is>
           <t>Sa</t>
         </is>
       </c>
-      <c r="P93" s="2" t="inlineStr">
+      <c r="P94" s="2" t="inlineStr">
         <is>
           <t>Su</t>
         </is>
       </c>
     </row>
-    <row r="94" ht="14.7" customHeight="1">
-      <c r="B94" s="1" t="inlineStr">
+    <row r="95" ht="14.7" customHeight="1">
+      <c r="B95" s="1" t="inlineStr"/>
+      <c r="C95" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C94" s="1" t="inlineStr">
+      <c r="D95" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D94" s="1" t="inlineStr">
+      <c r="E95" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E94" s="1" t="inlineStr">
+      <c r="F95" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F94" s="1" t="inlineStr">
+      <c r="G95" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G94" s="1" t="inlineStr">
+      <c r="H95" s="1" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="H94" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J94" s="1" t="inlineStr"/>
-      <c r="K94" s="1" t="inlineStr"/>
-      <c r="L94" s="1" t="inlineStr"/>
-      <c r="M94" s="1" t="inlineStr"/>
-      <c r="N94" s="1" t="inlineStr"/>
-      <c r="O94" s="1" t="inlineStr"/>
-      <c r="P94" s="1" t="inlineStr"/>
-    </row>
-    <row r="95" ht="14.7" customHeight="1">
-      <c r="B95" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C95" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D95" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E95" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F95" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G95" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H95" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
         </is>
       </c>
       <c r="J95" s="1" t="inlineStr"/>
@@ -4160,37 +4128,37 @@
     <row r="96" ht="14.7" customHeight="1">
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D96" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E96" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F96" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G96" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H96" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J96" s="1" t="inlineStr"/>
@@ -4204,37 +4172,37 @@
     <row r="97" ht="14.7" customHeight="1">
       <c r="B97" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D97" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E97" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F97" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G97" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H97" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J97" s="1" t="inlineStr"/>
@@ -4248,23 +4216,39 @@
     <row r="98" ht="14.7" customHeight="1">
       <c r="B98" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D98" s="1" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="E98" s="1" t="inlineStr"/>
-      <c r="F98" s="1" t="inlineStr"/>
-      <c r="G98" s="1" t="inlineStr"/>
-      <c r="H98" s="1" t="inlineStr"/>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F98" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G98" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H98" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
       <c r="J98" s="1" t="inlineStr"/>
       <c r="K98" s="1" t="inlineStr"/>
       <c r="L98" s="1" t="inlineStr"/>
@@ -4273,7 +4257,38 @@
       <c r="O98" s="1" t="inlineStr"/>
       <c r="P98" s="1" t="inlineStr"/>
     </row>
-    <row r="99" ht="14.7" customHeight="1"/>
+    <row r="99" ht="14.7" customHeight="1">
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F99" s="1" t="inlineStr"/>
+      <c r="G99" s="1" t="inlineStr"/>
+      <c r="H99" s="1" t="inlineStr"/>
+      <c r="J99" s="1" t="inlineStr"/>
+      <c r="K99" s="1" t="inlineStr"/>
+      <c r="L99" s="1" t="inlineStr"/>
+      <c r="M99" s="1" t="inlineStr"/>
+      <c r="N99" s="1" t="inlineStr"/>
+      <c r="O99" s="1" t="inlineStr"/>
+      <c r="P99" s="1" t="inlineStr"/>
+    </row>
     <row r="100" ht="14.7" customHeight="1"/>
     <row r="101" ht="14.7" customHeight="1"/>
     <row r="102" ht="14.7" customHeight="1"/>
